--- a/SUBSTITUTION.xlsx
+++ b/SUBSTITUTION.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/says_dtu_dk/Documents/Dokumenter/drosh/App/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="11_AD4D1D646341095ACB7000E4EDD3CDFA683EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66246A4A-DCE2-4963-BC4A-9C3F0574A2E3}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="11_AD4D1D646341095ACB7000E4EDD3CDFA683EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B320DE11-E47E-46A0-9453-00BF8EB72FC7}"/>
   <bookViews>
-    <workbookView xWindow="-30" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OPTIMAL DIET" sheetId="1" r:id="rId1"/>
@@ -634,10 +634,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -905,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2362,7 +2358,7 @@
         <v>134</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E17">
         <v>16.8</v>
@@ -2451,7 +2447,7 @@
         <v>134</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>9.1</v>
@@ -2540,7 +2536,7 @@
         <v>134</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>10</v>
